--- a/teaching/traditional_assets/database/data/zambia/zambia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/zambia/zambia_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,12 +590,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.1058</v>
-      </c>
-      <c r="E2">
-        <v>-0.004225</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -603,85 +597,88 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0004195154180189218</v>
+        <v>0.002634562967809478</v>
       </c>
       <c r="J2">
-        <v>-0.0002490127524836195</v>
+        <v>0.002634562967809478</v>
       </c>
       <c r="K2">
-        <v>34.5</v>
+        <v>-2.07</v>
       </c>
       <c r="L2">
-        <v>0.1649928263988522</v>
+        <v>-0.1952830188679245</v>
       </c>
       <c r="M2">
-        <v>31.082</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1281731958762887</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.900927536231884</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>31.082</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.1281731958762887</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.900927536231884</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>276.9</v>
+        <v>8.93</v>
       </c>
       <c r="V2">
-        <v>1.141855670103093</v>
+        <v>0.8345794392523365</v>
+      </c>
+      <c r="W2">
+        <v>-3.631578947368421</v>
       </c>
       <c r="X2">
-        <v>0.07874904789757733</v>
+        <v>0.1086519618817497</v>
+      </c>
+      <c r="Y2">
+        <v>-3.740230909250171</v>
       </c>
       <c r="Z2">
-        <v>9.060340292341483</v>
+        <v>2.070163641201522</v>
       </c>
       <c r="AA2">
-        <v>-0.03032595631106578</v>
+        <v>0.005453976466415156</v>
       </c>
       <c r="AB2">
-        <v>0.07825301373153568</v>
+        <v>0.1027341724849342</v>
       </c>
       <c r="AC2">
-        <v>-0.1085789700426014</v>
+        <v>-0.09728019601851909</v>
       </c>
       <c r="AD2">
-        <v>27.4</v>
+        <v>3.54</v>
       </c>
       <c r="AE2">
-        <v>0.9286033695387828</v>
+        <v>0.8803681627060976</v>
       </c>
       <c r="AF2">
-        <v>28.32860336953878</v>
+        <v>4.420368162706097</v>
       </c>
       <c r="AG2">
-        <v>-248.5713966304612</v>
+        <v>-4.509631837293902</v>
       </c>
       <c r="AH2">
-        <v>0.1045997469140478</v>
+        <v>0.2923452732856594</v>
       </c>
       <c r="AI2">
-        <v>0.3562064737627376</v>
+        <v>0.569608048230109</v>
       </c>
       <c r="AJ2">
-        <v>40.94138659683953</v>
+        <v>-0.7284917017475958</v>
       </c>
       <c r="AK2">
-        <v>1.259409422409174</v>
+        <v>3.855599423257433</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -690,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>279.5918367346939</v>
+        <v>17.35294117647059</v>
       </c>
       <c r="AP2">
-        <v>-2536.442822759808</v>
+        <v>-22.10603841810737</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Standard Chartered Bank Zambia Plc (LUSE:SCZ)</t>
+          <t>Cavmont Capital Holdings Zambia Plc (LUSE:CCHZ)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -712,12 +709,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0866</v>
-      </c>
-      <c r="E3">
-        <v>-0.005659999999999999</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -725,91 +716,88 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1.305694671209655e-05</v>
+        <v>0.002634562967809478</v>
       </c>
       <c r="J3">
-        <v>-7.245473320007333e-06</v>
+        <v>0.002634562967809478</v>
       </c>
       <c r="K3">
-        <v>19.2</v>
+        <v>-2.07</v>
       </c>
       <c r="L3">
-        <v>0.2186788154897494</v>
+        <v>-0.1952830188679245</v>
       </c>
       <c r="M3">
-        <v>30.6</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1617336152219873</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.59375</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>30.6</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.1617336152219873</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.59375</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>276.9</v>
+        <v>8.93</v>
       </c>
       <c r="V3">
-        <v>1.46353065539112</v>
+        <v>0.8345794392523365</v>
       </c>
       <c r="W3">
-        <v>0.1443609022556391</v>
+        <v>-3.631578947368421</v>
       </c>
       <c r="X3">
-        <v>0.08110277111552151</v>
+        <v>0.1086519618817497</v>
       </c>
       <c r="Y3">
-        <v>0.06325813114011757</v>
+        <v>-3.740230909250171</v>
       </c>
       <c r="Z3">
-        <v>3.959283057783959</v>
+        <v>2.070163641201522</v>
       </c>
       <c r="AA3">
-        <v>-2.868687976153073e-05</v>
+        <v>0.005453976466415156</v>
       </c>
       <c r="AB3">
-        <v>0.08015675635976033</v>
+        <v>0.1027341724849342</v>
       </c>
       <c r="AC3">
-        <v>-0.08018544323952186</v>
+        <v>-0.09728019601851909</v>
       </c>
       <c r="AD3">
-        <v>27.4</v>
+        <v>3.54</v>
       </c>
       <c r="AE3">
-        <v>0.02573199960661039</v>
+        <v>0.8803681627060976</v>
       </c>
       <c r="AF3">
-        <v>27.42573199960661</v>
+        <v>4.420368162706097</v>
       </c>
       <c r="AG3">
-        <v>-249.4742680003934</v>
+        <v>-4.509631837293902</v>
       </c>
       <c r="AH3">
-        <v>0.1266042207749189</v>
+        <v>0.2923452732856594</v>
       </c>
       <c r="AI3">
-        <v>0.3488136937121784</v>
+        <v>0.569608048230109</v>
       </c>
       <c r="AJ3">
-        <v>4.138984616101271</v>
+        <v>-0.7284917017475958</v>
       </c>
       <c r="AK3">
-        <v>1.258228163020622</v>
+        <v>3.855599423257433</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -818,132 +806,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>6849.999999999999</v>
+        <v>17.35294117647059</v>
       </c>
       <c r="AP3">
-        <v>-62368.56700009834</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Zambia National Commercial Bank Plc (LUSE:ZANACO)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.125</v>
-      </c>
-      <c r="E4">
-        <v>-0.00279</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>-0.0007137203131610426</v>
-      </c>
-      <c r="J4">
-        <v>-0.0004512363963373534</v>
-      </c>
-      <c r="K4">
-        <v>15.3</v>
-      </c>
-      <c r="L4">
-        <v>0.1261335531739489</v>
-      </c>
-      <c r="M4">
-        <v>0.482</v>
-      </c>
-      <c r="N4">
-        <v>0.009043151969981239</v>
-      </c>
-      <c r="O4">
-        <v>0.03150326797385621</v>
-      </c>
-      <c r="P4">
-        <v>0.482</v>
-      </c>
-      <c r="Q4">
-        <v>0.009043151969981239</v>
-      </c>
-      <c r="R4">
-        <v>0.03150326797385621</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.07639532467963316</v>
-      </c>
-      <c r="Z4">
-        <v>134.3491487708959</v>
-      </c>
-      <c r="AA4">
-        <v>-0.06062322574237004</v>
-      </c>
-      <c r="AB4">
-        <v>0.07634927110331101</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1369724968456811</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0.9028713699321723</v>
-      </c>
-      <c r="AF4">
-        <v>0.9028713699321723</v>
-      </c>
-      <c r="AG4">
-        <v>0.9028713699321723</v>
-      </c>
-      <c r="AH4">
-        <v>0.01665726089989063</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>0.01665726089989063</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>9.605014573746514</v>
+        <v>-22.10603841810737</v>
       </c>
     </row>
   </sheetData>
